--- a/wykresy/f(x)=sin(x)+cos(x).xlsx
+++ b/wykresy/f(x)=sin(x)+cos(x).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studia\5 sem\Programowanie genetyczne\tiny-gp\wykresy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0875EF1F-3477-46E5-B944-BCCC893211FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE75B4A-FB0C-4D19-A814-8F71503BC00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>bestFitness</t>
+  </si>
+  <si>
+    <t>averageFitness</t>
   </si>
 </sst>
 </file>
@@ -1165,304 +1174,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.734453464451574</c:v>
+                  <c:v>-0.86878807910599098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.90577114826900995</c:v>
+                  <c:v>-0.980211922785027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0472671650331</c:v>
+                  <c:v>-1.0778802639306899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1627265451817099</c:v>
+                  <c:v>-1.16251183322471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2553580713055501</c:v>
+                  <c:v>-1.2347924766062399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.32790275195078</c:v>
+                  <c:v>-1.29537780978245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.38271844005405</c:v>
+                  <c:v>-1.34489551563411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.42184652328737</c:v>
+                  <c:v>-1.3839473478502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.44706498569168</c:v>
+                  <c:v>-1.4131108912792001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4599309986581299</c:v>
+                  <c:v>-1.4329411194672901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.46181538813282</c:v>
+                  <c:v>-1.44397178200026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.45393074104249</c:v>
+                  <c:v>-1.44671664807699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4373544887065599</c:v>
+                  <c:v>-1.4416706278401801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.4130479919032599</c:v>
+                  <c:v>-1.42931078908876</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.3818724193587</c:v>
+                  <c:v>-1.4100972838766499</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.34460203651937</c:v>
+                  <c:v>-1.3844741969965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.3019353889299301</c:v>
+                  <c:v>-1.35287032632493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.25450476325291</c:v>
+                  <c:v>-1.31569990336656</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.2028842309488801</c:v>
+                  <c:v>-1.27336326100032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.1475965190855999</c:v>
+                  <c:v>-1.22624745434048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.08911890541571</c:v>
+                  <c:v>-1.1747268397292301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.02788829761627</c:v>
+                  <c:v>-1.1191636161393901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.96430562707963396</c:v>
+                  <c:v>-1.05990833265346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.89873966412714701</c:v>
+                  <c:v>-0.99730036517711895</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.83153034265131898</c:v>
+                  <c:v>-0.93166836511913698</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.762991666960668</c:v>
+                  <c:v>-0.86333068241339905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.69341426121460603</c:v>
+                  <c:v>-0.79259576495685202</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.62306761167263303</c:v>
+                  <c:v>-0.71976253628228903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.55220204353787306</c:v>
+                  <c:v>-0.64512075306706795</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.48105046701505</c:v>
+                  <c:v>-0.56895134389235602</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.40982992090981202</c:v>
+                  <c:v>-0.49152673050678303</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.33874293619180001</c:v>
+                  <c:v>-0.413111132708817</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.26797873574508502</c:v>
+                  <c:v>-0.333960857840295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.197714278841123</c:v>
+                  <c:v>-0.25432457577612799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.12811514725258599</c:v>
+                  <c:v>-0.174443580199692</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.9336248814085703E-2</c:v>
+                  <c:v>-9.4552036867576406E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.4777303863938606E-3</c:v>
+                  <c:v>-1.48772194892132E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.51923012061297E-2</c:v>
+                  <c:v>6.4360266225555393E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.140684042786653</c:v>
+                  <c:v>0.142946269866359</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.204843768399008</c:v>
+                  <c:v>0.22067289455174899</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26758699522575802</c:v>
+                  <c:v>0.297338305737891</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.32889569273586999</c:v>
+                  <c:v>0.372746550328378</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38908717950416799</c:v>
+                  <c:v>0.44670738589006398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.46300751045022998</c:v>
+                  <c:v>0.51903611988436105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.497880190674239</c:v>
+                  <c:v>0.58955345897009104</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55279055224804596</c:v>
+                  <c:v>0.65808536866448497</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.60475431643139199</c:v>
+                  <c:v>0.72446294405397405</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.65437555562141403</c:v>
+                  <c:v>0.78852229303755705</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70170174882560199</c:v>
+                  <c:v>0.85010443529666302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.74669978917861801</c:v>
+                  <c:v>0.90905522429867602</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.789316907438946</c:v>
+                  <c:v>0.97828856149199295</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.82949507147324897</c:v>
+                  <c:v>1.01847020113328</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.867175531442822</c:v>
+                  <c:v>1.0686505976683101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.90230049899123299</c:v>
+                  <c:v>1.1156338922709701</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.93481381117704099</c:v>
+                  <c:v>1.15930358142399</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.96466118321652905</c:v>
+                  <c:v>1.1998814796377599</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.991790278342086</c:v>
+                  <c:v>1.2358873599038001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0161506909447</c:v>
+                  <c:v>1.2688309321828799</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0376938869621299</c:v>
+                  <c:v>1.29791518175065</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0563731228661299</c:v>
+                  <c:v>1.32306260085686</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0721433540521801</c:v>
+                  <c:v>1.3441731167545301</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0849611381907101</c:v>
+                  <c:v>1.36114731964489</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0947845363392801</c:v>
+                  <c:v>1.3738893328269901</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.10157301307898</c:v>
+                  <c:v>1.38230757834234</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.10528733602528</c:v>
+                  <c:v>1.3863151361872199</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1058894744721699</c:v>
+                  <c:v>1.3858300161111301</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1033424964982199</c:v>
+                  <c:v>1.3807754302216699</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.09761046350066</c:v>
+                  <c:v>1.37108010073355</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0886583207701299</c:v>
+                  <c:v>1.3566786225106799</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.07645178232963</c:v>
+                  <c:v>1.3375118965503401</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0609572077956899</c:v>
+                  <c:v>1.3135276511393501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0421414684361701</c:v>
+                  <c:v>1.28468107004696</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.01997179884202</c:v>
+                  <c:v>1.25093555128448</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99441562963294505</c:v>
+                  <c:v>1.21226362569015</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.96544039528081704</c:v>
+                  <c:v>1.16864807221296</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.93301330932523197</c:v>
+                  <c:v>1.1200832768270199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.89710109677650696</c:v>
+                  <c:v>1.06657689533596</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.85766967006461403</c:v>
+                  <c:v>1.0081518981073001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.81468373006962902</c:v>
+                  <c:v>0.94484909870535405</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.76810626691084205</c:v>
+                  <c:v>0.87673030091107196</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.71789792527815699</c:v>
+                  <c:v>0.80388224328994595</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.66401618459317302</c:v>
+                  <c:v>0.726421582556523</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.60641428268208897</c:v>
+                  <c:v>0.64450124436678302</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.54503977883380095</c:v>
+                  <c:v>0.55831859484039104</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.47983260125754601</c:v>
+                  <c:v>0.468126066632439</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.41072234329555701</c:v>
+                  <c:v>0.374245138990629</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.33762444153915599</c:v>
+                  <c:v>0.277084968987036</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.26043464941277999</c:v>
+                  <c:v>0.177167578316031</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.17902084034065399</c:v>
+                  <c:v>7.5162446863282606E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3210494596986507E-2</c:v>
+                  <c:v>-2.8065124287092701E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.77095330659565E-3</c:v>
+                  <c:v>-0.13138504092470599</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-9.2622969041516803E-2</c:v>
+                  <c:v>-0.23330181581421899</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.19344459647136</c:v>
+                  <c:v>-0.331804031217591</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.30041631023429199</c:v>
+                  <c:v>-0.42413234780054698</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.41470562347173301</c:v>
+                  <c:v>-0.50640955927356401</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.53834063095330897</c:v>
+                  <c:v>-0.57302647395010198</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.67519685904455795</c:v>
+                  <c:v>-0.615572384805402</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.83374512882591101</c:v>
+                  <c:v>-0.62086058428558699</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.0367787467093601</c:v>
+                  <c:v>-0.56700897772659298</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.3739830276521099</c:v>
+                  <c:v>-0.414901791078849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,6 +1716,930 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(-3.14,3.14)'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bestFitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(-3.14,3.14)'!$Z$2:$Z$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(-3.14,3.14)'!$AA$2:$AA$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>67.604288718801499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.773579009216704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.773579009216704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.665140294496098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.665140294496098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.225818094326698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.763264353780897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.202665451590597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.649460060019898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.712709556314401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.712709556314401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.756160536271899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.533161661442001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.533161661442001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.570799087577299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.570799087577299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.570799087577299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.128182367832299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.161560480281299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.9154256904914</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.9245534305766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.9245534305766</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.9245534305766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.9245534305766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.9245534305766</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.821348246293001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.4249898318124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.4249898318124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5489926906036793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4AE-4CDA-8D88-1C6DE71744A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1735713407"/>
+        <c:axId val="1860780895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1735713407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860780895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860780895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735713407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(-3.14,3.14)'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>averageFitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(-3.14,3.14)'!$Z$2:$Z$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(-3.14,3.14)'!$AB$2:$AB$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3126.1453859340099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>741.47694688085096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394.51061557661097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.50182660363402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.801409107117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258.451408185258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>317.48782030002701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.141296555731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.51884722592899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>426.50893373503197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254.91143439893901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.937285579715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131.77461198348001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>452.20917096657598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149.19818459318901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>673.12992998972504</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>183.26710716788301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>181.256788205936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>543.56647131947295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58967.988988812402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58548.658757247897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>470.39258174495598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>224.09848900849499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>179.215932369667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>353.009064662649</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>381.36862548575198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353.03782897792399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>308.075854530838</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154.29023493381899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4114-4D09-837C-350E3EFB9279}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1862747199"/>
+        <c:axId val="1860766015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1862747199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860766015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860766015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862747199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3289,7 +4222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -4886,7 +5819,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -6643,6 +7576,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8707,20 +9720,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8740,6 +10785,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C17A317-995E-C37F-07AC-6780E0100F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01716DD5-1CD1-F7AF-C471-EED1F438434F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9134,15 +11251,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9152,8 +11269,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-3.14</v>
       </c>
@@ -9161,10 +11287,19 @@
         <v>-1.0015913846440201</v>
       </c>
       <c r="C2">
-        <v>-0.734453464451574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.86878807910599098</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>67.604288718801499</v>
+      </c>
+      <c r="AB2">
+        <v>3126.1453859340099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3.0771999999999999</v>
       </c>
@@ -9172,10 +11307,19 @@
         <v>-1.06227567239695</v>
       </c>
       <c r="C3">
-        <v>-0.90577114826900995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.980211922785027</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>64.773579009216704</v>
+      </c>
+      <c r="AB3">
+        <v>741.47694688085096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.01439999999999</v>
       </c>
@@ -9183,10 +11327,19 @@
         <v>-1.1187718915562199</v>
       </c>
       <c r="C4">
-        <v>-1.0472671650331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.0778802639306899</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>64.773579009216704</v>
+      </c>
+      <c r="AB4">
+        <v>394.51061557661097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.9515999999999898</v>
       </c>
@@ -9194,10 +11347,19 @@
         <v>-1.17085730329115</v>
       </c>
       <c r="C5">
-        <v>-1.1627265451817099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.16251183322471</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>59.665140294496098</v>
+      </c>
+      <c r="AB5">
+        <v>267.50182660363402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.88879999999999</v>
       </c>
@@ -9205,10 +11367,19 @@
         <v>-1.2183265585734899</v>
       </c>
       <c r="C6">
-        <v>-1.2553580713055501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.2347924766062399</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>59.665140294496098</v>
+      </c>
+      <c r="AB6">
+        <v>242.801409107117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.8259999999999899</v>
       </c>
@@ -9216,10 +11387,19 @@
         <v>-1.26099250777495</v>
       </c>
       <c r="C7">
-        <v>-1.32790275195078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.29537780978245</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>52.225818094326698</v>
+      </c>
+      <c r="AB7">
+        <v>258.451408185258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.7631999999999901</v>
       </c>
@@ -9227,10 +11407,19 @@
         <v>-1.2986869385129201</v>
       </c>
       <c r="C8">
-        <v>-1.38271844005405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.34489551563411</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>46.763264353780897</v>
+      </c>
+      <c r="AB8">
+        <v>317.48782030002701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.7003999999999899</v>
       </c>
@@ -9238,10 +11427,19 @@
         <v>-1.3312612388350999</v>
       </c>
       <c r="C9">
-        <v>-1.42184652328737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.3839473478502</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>45.202665451590597</v>
+      </c>
+      <c r="AB9">
+        <v>234.141296555731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.6375999999999902</v>
       </c>
@@ -9249,10 +11447,19 @@
         <v>-1.35858698312875</v>
       </c>
       <c r="C10">
-        <v>-1.44706498569168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.4131108912792001</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>42.649460060019898</v>
+      </c>
+      <c r="AB10">
+        <v>198.51884722592899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.57479999999999</v>
       </c>
@@ -9260,10 +11467,19 @@
         <v>-1.3805564384442699</v>
       </c>
       <c r="C11">
-        <v>-1.4599309986581299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.4329411194672901</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>37.712709556314401</v>
+      </c>
+      <c r="AB11">
+        <v>426.50893373503197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.5119999999999898</v>
       </c>
@@ -9271,10 +11487,19 @@
         <v>-1.3970829892370999</v>
       </c>
       <c r="C12">
-        <v>-1.46181538813282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.44397178200026</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+      <c r="AA12">
+        <v>37.712709556314401</v>
+      </c>
+      <c r="AB12">
+        <v>254.91143439893901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.4491999999999901</v>
       </c>
@@ -9282,10 +11507,19 @@
         <v>-1.4081014788533499</v>
       </c>
       <c r="C13">
-        <v>-1.45393074104249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.44671664807699</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>32.756160536271899</v>
+      </c>
+      <c r="AB13">
+        <v>171.937285579715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.3863999999999899</v>
       </c>
@@ -9293,10 +11527,19 @@
         <v>-1.4135684664127299</v>
       </c>
       <c r="C14">
-        <v>-1.4373544887065599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.4416706278401801</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <v>30.533161661442001</v>
+      </c>
+      <c r="AB14">
+        <v>131.77461198348001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.3235999999999901</v>
       </c>
@@ -9304,10 +11547,19 @@
         <v>-1.41346239807617</v>
       </c>
       <c r="C15">
-        <v>-1.4130479919032599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.42931078908876</v>
+      </c>
+      <c r="Z15">
+        <v>14</v>
+      </c>
+      <c r="AA15">
+        <v>30.533161661442001</v>
+      </c>
+      <c r="AB15">
+        <v>452.20917096657598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.2607999999999899</v>
       </c>
@@ -9315,10 +11567,19 @@
         <v>-1.40778369202274</v>
       </c>
       <c r="C16">
-        <v>-1.3818724193587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.4100972838766499</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+      <c r="AA16">
+        <v>20.570799087577299</v>
+      </c>
+      <c r="AB16">
+        <v>149.19818459318901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-2.1979999999999902</v>
       </c>
@@ -9326,10 +11587,19 @@
         <v>-1.39655473680102</v>
       </c>
       <c r="C17">
-        <v>-1.34460203651937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.3844741969965</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
+        <v>20.570799087577299</v>
+      </c>
+      <c r="AB17">
+        <v>673.12992998972504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.13519999999999</v>
       </c>
@@ -9337,10 +11607,19 @@
         <v>-1.3798198030611899</v>
       </c>
       <c r="C18">
-        <v>-1.3019353889299301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.35287032632493</v>
+      </c>
+      <c r="Z18">
+        <v>17</v>
+      </c>
+      <c r="AA18">
+        <v>20.570799087577299</v>
+      </c>
+      <c r="AB18">
+        <v>183.26710716788301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.0723999999999898</v>
       </c>
@@ -9348,10 +11627,19 @@
         <v>-1.3576448690160901</v>
       </c>
       <c r="C19">
-        <v>-1.25450476325291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.31569990336656</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>20.128182367832299</v>
+      </c>
+      <c r="AB19">
+        <v>181.256788205936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-2.0095999999999901</v>
       </c>
@@ -9359,10 +11647,19 @@
         <v>-1.33011736031922</v>
       </c>
       <c r="C20">
-        <v>-1.2028842309488801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.27336326100032</v>
+      </c>
+      <c r="Z20">
+        <v>19</v>
+      </c>
+      <c r="AA20">
+        <v>19.161560480281299</v>
+      </c>
+      <c r="AB20">
+        <v>543.56647131947295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.9467999999999901</v>
       </c>
@@ -9370,10 +11667,19 @@
         <v>-1.29734580538522</v>
       </c>
       <c r="C21">
-        <v>-1.1475965190855999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.22624745434048</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>18.9154256904914</v>
+      </c>
+      <c r="AB21">
+        <v>58967.988988812402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.8839999999999899</v>
       </c>
@@ -9381,10 +11687,19 @@
         <v>-1.25945940751181</v>
       </c>
       <c r="C22">
-        <v>-1.08911890541571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.1747268397292301</v>
+      </c>
+      <c r="Z22">
+        <v>21</v>
+      </c>
+      <c r="AA22">
+        <v>12.9245534305766</v>
+      </c>
+      <c r="AB22">
+        <v>58548.658757247897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.8211999999999899</v>
       </c>
@@ -9392,10 +11707,19 @@
         <v>-1.21660753549017</v>
       </c>
       <c r="C23">
-        <v>-1.02788829761627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.1191636161393901</v>
+      </c>
+      <c r="Z23">
+        <v>22</v>
+      </c>
+      <c r="AA23">
+        <v>12.9245534305766</v>
+      </c>
+      <c r="AB23">
+        <v>470.39258174495598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.75839999999999</v>
       </c>
@@ -9403,10 +11727,19 @@
         <v>-1.16895913471183</v>
       </c>
       <c r="C24">
-        <v>-0.96430562707963396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.05990833265346</v>
+      </c>
+      <c r="Z24">
+        <v>23</v>
+      </c>
+      <c r="AA24">
+        <v>12.9245534305766</v>
+      </c>
+      <c r="AB24">
+        <v>224.09848900849499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.69559999999999</v>
       </c>
@@ -9414,10 +11747,19 @@
         <v>-1.1167020610940599</v>
       </c>
       <c r="C25">
-        <v>-0.89873966412714701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.99730036517711895</v>
+      </c>
+      <c r="Z25">
+        <v>24</v>
+      </c>
+      <c r="AA25">
+        <v>12.9245534305766</v>
+      </c>
+      <c r="AB25">
+        <v>179.215932369667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.63279999999999</v>
       </c>
@@ -9425,10 +11767,19 @@
         <v>-1.0600423404496599</v>
       </c>
       <c r="C26">
-        <v>-0.83153034265131898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.93166836511913698</v>
+      </c>
+      <c r="Z26">
+        <v>25</v>
+      </c>
+      <c r="AA26">
+        <v>12.9245534305766</v>
+      </c>
+      <c r="AB26">
+        <v>353.009064662649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.5699999999999901</v>
       </c>
@@ -9436,10 +11787,19 @@
         <v>-0.99920335622109802</v>
       </c>
       <c r="C27">
-        <v>-0.762991666960668</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.86333068241339905</v>
+      </c>
+      <c r="Z27">
+        <v>26</v>
+      </c>
+      <c r="AA27">
+        <v>12.821348246293001</v>
+      </c>
+      <c r="AB27">
+        <v>381.36862548575198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.5071999999999901</v>
       </c>
@@ -9447,10 +11807,19 @@
         <v>-0.93442496878147596</v>
       </c>
       <c r="C28">
-        <v>-0.69341426121460603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.79259576495685202</v>
+      </c>
+      <c r="Z28">
+        <v>27</v>
+      </c>
+      <c r="AA28">
+        <v>12.4249898318124</v>
+      </c>
+      <c r="AB28">
+        <v>353.03782897792399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.4443999999999899</v>
       </c>
@@ -9458,10 +11827,19 @@
         <v>-0.86596256977444697</v>
       </c>
       <c r="C29">
-        <v>-0.62306761167263303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.71976253628228903</v>
+      </c>
+      <c r="Z29">
+        <v>28</v>
+      </c>
+      <c r="AA29">
+        <v>12.4249898318124</v>
+      </c>
+      <c r="AB29">
+        <v>308.075854530838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.3815999999999899</v>
       </c>
@@ -9469,10 +11847,19 @@
         <v>-0.79408607522141506</v>
       </c>
       <c r="C30">
-        <v>-0.55220204353787306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.64512075306706795</v>
+      </c>
+      <c r="Z30">
+        <v>29</v>
+      </c>
+      <c r="AA30">
+        <v>8.5489926906036793</v>
+      </c>
+      <c r="AB30">
+        <v>154.29023493381899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.31879999999999</v>
       </c>
@@ -9480,10 +11867,10 @@
         <v>-0.71907886136574295</v>
       </c>
       <c r="C31">
-        <v>-0.48105046701505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.56895134389235602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.25599999999999</v>
       </c>
@@ -9491,7 +11878,7 @@
         <v>-0.64123664744944198</v>
       </c>
       <c r="C32">
-        <v>-0.40982992090981202</v>
+        <v>-0.49152673050678303</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9502,7 +11889,7 @@
         <v>-0.56086632982703899</v>
       </c>
       <c r="C33">
-        <v>-0.33874293619180001</v>
+        <v>-0.413111132708817</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9513,7 +11900,7 @@
         <v>-0.47828477201320002</v>
       </c>
       <c r="C34">
-        <v>-0.26797873574508502</v>
+        <v>-0.333960857840295</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9524,7 +11911,7 @@
         <v>-0.39381755543436697</v>
       </c>
       <c r="C35">
-        <v>-0.197714278841123</v>
+        <v>-0.25432457577612799</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,7 +11922,7 @@
         <v>-0.30779769580966199</v>
       </c>
       <c r="C36">
-        <v>-0.12811514725258599</v>
+        <v>-0.174443580199692</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,7 +11933,7 @@
         <v>-0.22056433022175101</v>
       </c>
       <c r="C37">
-        <v>-5.9336248814085703E-2</v>
+        <v>-9.4552036867576406E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,7 +11944,7 @@
         <v>-0.13246138005397401</v>
       </c>
       <c r="C38">
-        <v>8.4777303863938606E-3</v>
+        <v>-1.48772194892132E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,7 +11955,7 @@
         <v>-4.3836195065150303E-2</v>
       </c>
       <c r="C39">
-        <v>7.51923012061297E-2</v>
+        <v>6.4360266225555393E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,7 +11966,7 @@
         <v>4.4961816052134097E-2</v>
       </c>
       <c r="C40">
-        <v>0.140684042786653</v>
+        <v>0.142946269866359</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9590,7 +11977,7 @@
         <v>0.133582563230673</v>
       </c>
       <c r="C41">
-        <v>0.204843768399008</v>
+        <v>0.22067289455174899</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9601,7 +11988,7 @@
         <v>0.22167665527414401</v>
       </c>
       <c r="C42">
-        <v>0.26758699522575802</v>
+        <v>0.297338305737891</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,7 +11999,7 @@
         <v>0.30889677734727</v>
       </c>
       <c r="C43">
-        <v>0.32889569273586999</v>
+        <v>0.372746550328378</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,7 +12010,7 @@
         <v>0.394899060279855</v>
       </c>
       <c r="C44">
-        <v>0.38908717950416799</v>
+        <v>0.44670738589006398</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9634,7 +12021,7 @@
         <v>0.47934443628611201</v>
       </c>
       <c r="C45">
-        <v>0.46300751045022998</v>
+        <v>0.51903611988436105</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9645,7 +12032,7 @@
         <v>0.56189997575433903</v>
       </c>
       <c r="C46">
-        <v>0.497880190674239</v>
+        <v>0.58955345897009104</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9656,7 +12043,7 @@
         <v>0.64224019983656599</v>
       </c>
       <c r="C47">
-        <v>0.55279055224804596</v>
+        <v>0.65808536866448497</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9667,7 +12054,7 @@
         <v>0.72004836366323499</v>
       </c>
       <c r="C48">
-        <v>0.60475431643139199</v>
+        <v>0.72446294405397405</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9678,7 +12065,7 @@
         <v>0.79501770512379499</v>
       </c>
       <c r="C49">
-        <v>0.65437555562141403</v>
+        <v>0.78852229303755705</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9689,7 +12076,7 @@
         <v>0.86685265428981895</v>
       </c>
       <c r="C50">
-        <v>0.70170174882560199</v>
+        <v>0.85010443529666302</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9700,7 +12087,7 @@
         <v>0.93526999871246197</v>
       </c>
       <c r="C51">
-        <v>0.74669978917861801</v>
+        <v>0.90905522429867602</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9711,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.789316907438946</v>
+        <v>0.97828856149199295</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9722,7 +12109,7 @@
         <v>1.06078745727332</v>
       </c>
       <c r="C53">
-        <v>0.82949507147324897</v>
+        <v>1.01847020113328</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9733,7 +12120,7 @@
         <v>1.1173927133065999</v>
       </c>
       <c r="C54">
-        <v>0.867175531442822</v>
+        <v>1.0686505976683101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9744,7 +12131,7 @@
         <v>1.1695925993865099</v>
       </c>
       <c r="C55">
-        <v>0.90230049899123299</v>
+        <v>1.1156338922709701</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9755,7 +12142,7 @@
         <v>1.21718131516463</v>
       </c>
       <c r="C56">
-        <v>0.93481381117704099</v>
+        <v>1.15930358142399</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9766,7 +12153,7 @@
         <v>1.2599712400344201</v>
       </c>
       <c r="C57">
-        <v>0.96466118321652905</v>
+        <v>1.1998814796377599</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9777,7 +12164,7 @@
         <v>1.29779367283373</v>
       </c>
       <c r="C58">
-        <v>0.991790278342086</v>
+        <v>1.2358873599038001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9788,7 +12175,7 @@
         <v>1.33049949695652</v>
       </c>
       <c r="C59">
-        <v>1.0161506909447</v>
+        <v>1.2688309321828799</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,7 +12186,7 @@
         <v>1.35795976825165</v>
       </c>
       <c r="C60">
-        <v>1.0376938869621299</v>
+        <v>1.29791518175065</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9810,7 +12197,7 @@
         <v>1.38006622339091</v>
       </c>
       <c r="C61">
-        <v>1.0563731228661299</v>
+        <v>1.32306260085686</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9821,7 +12208,7 @@
         <v>1.39673170670192</v>
       </c>
       <c r="C62">
-        <v>1.0721433540521801</v>
+        <v>1.3441731167545301</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9832,7 +12219,7 @@
         <v>1.4078905137832001</v>
       </c>
       <c r="C63">
-        <v>1.0849611381907101</v>
+        <v>1.36114731964489</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9843,7 +12230,7 @@
         <v>1.41349865054668</v>
       </c>
       <c r="C64">
-        <v>1.0947845363392801</v>
+        <v>1.3738893328269901</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9854,7 +12241,7 @@
         <v>1.41353400666634</v>
       </c>
       <c r="C65">
-        <v>1.10157301307898</v>
+        <v>1.38230757834234</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9865,7 +12252,7 @@
         <v>1.4079964427491201</v>
       </c>
       <c r="C66">
-        <v>1.10528733602528</v>
+        <v>1.3863151361872199</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9876,7 +12263,7 @@
         <v>1.3969077908845</v>
       </c>
       <c r="C67">
-        <v>1.1058894744721699</v>
+        <v>1.3858300161111301</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9887,7 +12274,7 @@
         <v>1.38031176857051</v>
       </c>
       <c r="C68">
-        <v>1.1033424964982199</v>
+        <v>1.3807754302216699</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9898,7 +12285,7 @@
         <v>1.3582738063555799</v>
       </c>
       <c r="C69">
-        <v>1.09761046350066</v>
+        <v>1.37108010073355</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9909,7 +12296,7 @@
         <v>1.33088078987574</v>
       </c>
       <c r="C70">
-        <v>1.0886583207701299</v>
+        <v>1.3566786225106799</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9920,7 +12307,7 @@
         <v>1.2982407173041199</v>
       </c>
       <c r="C71">
-        <v>1.07645178232963</v>
+        <v>1.3375118965503401</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9931,7 +12318,7 @@
         <v>1.26048227356349</v>
       </c>
       <c r="C72">
-        <v>1.0609572077956899</v>
+        <v>1.3135276511393501</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9942,7 +12329,7 @@
         <v>1.2177543229801799</v>
       </c>
       <c r="C73">
-        <v>1.0421414684361701</v>
+        <v>1.28468107004696</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9953,7 +12340,7 @@
         <v>1.1702253223800201</v>
       </c>
       <c r="C74">
-        <v>1.01997179884202</v>
+        <v>1.25093555128448</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9964,7 +12351,7 @@
         <v>1.1180826569398199</v>
       </c>
       <c r="C75">
-        <v>0.99441562963294505</v>
+        <v>1.21226362569015</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9975,7 +12362,7 @@
         <v>1.0615319014130999</v>
       </c>
       <c r="C76">
-        <v>0.96544039528081704</v>
+        <v>1.16864807221296</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9986,7 +12373,7 @@
         <v>1.0007960096425601</v>
       </c>
       <c r="C77">
-        <v>0.93301330932523197</v>
+        <v>1.1200832768270199</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9997,7 +12384,7 @@
         <v>0.93611443555475204</v>
       </c>
       <c r="C78">
-        <v>0.89710109677650696</v>
+        <v>1.06657689533596</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10008,7 +12395,7 @@
         <v>0.86774218910241796</v>
       </c>
       <c r="C79">
-        <v>0.85766967006461403</v>
+        <v>1.0081518981073001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10019,7 +12406,7 @@
         <v>0.79594883087655099</v>
       </c>
       <c r="C80">
-        <v>0.81468373006962902</v>
+        <v>0.94484909870535405</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10030,7 +12417,7 @@
         <v>0.72101740935188696</v>
       </c>
       <c r="C81">
-        <v>0.76810626691084205</v>
+        <v>0.87673030091107196</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10041,7 +12428,7 @@
         <v>0.64324334495583302</v>
       </c>
       <c r="C82">
-        <v>0.71789792527815699</v>
+        <v>0.80388224328994595</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10052,7 +12439,7 @@
         <v>0.56293326536043697</v>
       </c>
       <c r="C83">
-        <v>0.66401618459317302</v>
+        <v>0.726421582556523</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,7 +12450,7 @@
         <v>0.480403796589288</v>
       </c>
       <c r="C84">
-        <v>0.60641428268208897</v>
+        <v>0.64450124436678302</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,7 +12461,7 @@
         <v>0.395980314705488</v>
       </c>
       <c r="C85">
-        <v>0.54503977883380095</v>
+        <v>0.55831859484039104</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10085,7 +12472,7 @@
         <v>0.309995663002196</v>
       </c>
       <c r="C86">
-        <v>0.47983260125754601</v>
+        <v>0.468126066632439</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,7 +12483,7 @@
         <v>0.22278883975330099</v>
       </c>
       <c r="C87">
-        <v>0.41072234329555701</v>
+        <v>0.374245138990629</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,7 +12494,7 @@
         <v>0.13470366169780101</v>
       </c>
       <c r="C88">
-        <v>0.33762444153915599</v>
+        <v>0.277084968987036</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10118,7 +12505,7 @@
         <v>4.6087408527181399E-2</v>
       </c>
       <c r="C89">
-        <v>0.26043464941277999</v>
+        <v>0.177167578316031</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,7 +12516,7 @@
         <v>-4.2710546280058298E-2</v>
       </c>
       <c r="C90">
-        <v>0.17902084034065399</v>
+        <v>7.5162446863282606E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10140,7 +12527,7 @@
         <v>-0.131340112878717</v>
       </c>
       <c r="C91">
-        <v>9.3210494596986507E-2</v>
+        <v>-2.8065124287092701E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10151,7 +12538,7 @@
         <v>-0.219451865301519</v>
       </c>
       <c r="C92">
-        <v>2.77095330659565E-3</v>
+        <v>-0.13138504092470599</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10162,7 +12549,7 @@
         <v>-0.30669841908636802</v>
       </c>
       <c r="C93">
-        <v>-9.2622969041516803E-2</v>
+        <v>-0.23330181581421899</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10173,7 +12560,7 @@
         <v>-0.39273580085487603</v>
       </c>
       <c r="C94">
-        <v>-0.19344459647136</v>
+        <v>-0.331804031217591</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10184,7 +12571,7 @@
         <v>-0.477224804442554</v>
       </c>
       <c r="C95">
-        <v>-0.30041631023429199</v>
+        <v>-0.42413234780054698</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10195,7 +12582,7 @@
         <v>-0.55983232823404006</v>
       </c>
       <c r="C96">
-        <v>-0.41470562347173301</v>
+        <v>-0.50640955927356401</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10206,7 +12593,7 @@
         <v>-0.64023268843087899</v>
       </c>
       <c r="C97">
-        <v>-0.53834063095330897</v>
+        <v>-0.57302647395010198</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -10217,7 +12604,7 @@
         <v>-0.71810890307423703</v>
       </c>
       <c r="C98">
-        <v>-0.67519685904455795</v>
+        <v>-0.615572384805402</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,7 +12615,7 @@
         <v>-0.79315394176022203</v>
       </c>
       <c r="C99">
-        <v>-0.83374512882591101</v>
+        <v>-0.62086058428558699</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,7 +12626,7 @@
         <v>-0.86507193612076405</v>
       </c>
       <c r="C100">
-        <v>-1.0367787467093601</v>
+        <v>-0.56700897772659298</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10250,7 +12637,7 @@
         <v>-0.93357934629768402</v>
       </c>
       <c r="C101">
-        <v>-1.3739830276521099</v>
+        <v>-0.414901791078849</v>
       </c>
     </row>
   </sheetData>
